--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang2/02.XuLyBH/XLBH2202_GpsTayNinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang2/02.XuLyBH/XLBH2202_GpsTayNinh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="38" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="80">
   <si>
     <t>STT</t>
   </si>
@@ -250,6 +250,30 @@
   </si>
   <si>
     <t>Thiết bị lỗi GPS</t>
+  </si>
+  <si>
+    <t>Le4.1.05.AOO55.210624</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>sim lỗi</t>
+  </si>
+  <si>
+    <t>Thiết bị không khởi động được</t>
+  </si>
+  <si>
+    <t>Thiết bị hỏng diode chống quá áp</t>
+  </si>
+  <si>
+    <t>Thay diode chống quá áp, nâng cấp fw</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>NG, NCFW</t>
   </si>
 </sst>
 </file>
@@ -1009,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1225,23 +1249,35 @@
       <c r="B6" s="63">
         <v>44615</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="63">
+        <v>44622</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="38">
         <v>868183038601584</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="37" t="s">
+        <v>73</v>
+      </c>
       <c r="G6" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="54"/>
+      <c r="H6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>69</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="39"/>
+      <c r="K6" s="39" t="s">
+        <v>70</v>
+      </c>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39" t="s">
         <v>63</v>
@@ -1272,7 +1308,9 @@
       <c r="B7" s="63">
         <v>44615</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="63">
+        <v>44622</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
@@ -1284,11 +1322,17 @@
         <v>61</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="54"/>
+      <c r="I7" s="54" t="s">
+        <v>69</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="39"/>
+      <c r="K7" s="39" t="s">
+        <v>70</v>
+      </c>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="39" t="s">
         <v>63</v>
@@ -1317,7 +1361,9 @@
       <c r="B8" s="63">
         <v>44615</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="63">
+        <v>44622</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>44</v>
       </c>
@@ -1329,16 +1375,30 @@
         <v>67</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="54"/>
+      <c r="I8" s="54" t="s">
+        <v>69</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="39"/>
+      <c r="K8" s="39" t="s">
+        <v>70</v>
+      </c>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
       <c r="U8" s="69"/>
@@ -1354,7 +1414,9 @@
       <c r="B9" s="63">
         <v>44615</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="63">
+        <v>44622</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>44</v>
       </c>
@@ -1373,13 +1435,25 @@
       <c r="K9" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="L9" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
       <c r="U9" s="69"/>
@@ -1395,7 +1469,9 @@
       <c r="B10" s="63">
         <v>44615</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="63">
+        <v>44622</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>44</v>
       </c>
@@ -1414,13 +1490,25 @@
       <c r="K10" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="58"/>
-      <c r="M10" s="39"/>
+      <c r="L10" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="O10" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
       <c r="U10" s="69"/>
@@ -1436,7 +1524,9 @@
       <c r="B11" s="63">
         <v>44615</v>
       </c>
-      <c r="C11" s="63"/>
+      <c r="C11" s="63">
+        <v>44622</v>
+      </c>
       <c r="D11" s="37" t="s">
         <v>44</v>
       </c>
@@ -1458,12 +1548,22 @@
         <v>70</v>
       </c>
       <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="M11" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
+      <c r="O11" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
       <c r="U11" s="69"/>
@@ -1479,7 +1579,9 @@
       <c r="B12" s="63">
         <v>44615</v>
       </c>
-      <c r="C12" s="63"/>
+      <c r="C12" s="63">
+        <v>44622</v>
+      </c>
       <c r="D12" s="37" t="s">
         <v>44</v>
       </c>
@@ -1498,13 +1600,25 @@
       <c r="K12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="L12" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
+      <c r="O12" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
       <c r="U12" s="68" t="s">
@@ -1744,7 +1858,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2213,7 +2327,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2277,7 +2391,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2884,8 +2998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3100,7 +3214,9 @@
       <c r="B6" s="63">
         <v>44615</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="63">
+        <v>44622</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>56</v>
       </c>
@@ -3113,10 +3229,14 @@
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="54"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39" t="s">
         <v>63</v>
@@ -3125,10 +3245,10 @@
         <v>65</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="R6" s="37" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="65"/>
@@ -3147,7 +3267,9 @@
       <c r="B7" s="63">
         <v>44615</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="63">
+        <v>44622</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>56</v>
       </c>
@@ -3159,11 +3281,19 @@
         <v>67</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="39"/>
+      <c r="I7" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>72</v>
+      </c>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="39" t="s">
         <v>63</v>
@@ -3561,7 +3691,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -3625,7 +3755,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -3838,7 +3968,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -4094,7 +4224,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang2/02.XuLyBH/XLBH2202_GpsTayNinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang2/02.XuLyBH/XLBH2202_GpsTayNinh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="38" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="80">
   <si>
     <t>STT</t>
   </si>
@@ -682,6 +682,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -697,32 +721,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1033,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C12"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1066,43 +1066,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1147,58 +1147,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -1223,23 +1223,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1652,7 +1652,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1681,7 +1681,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1710,7 +1710,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1739,7 +1739,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2970,6 +2970,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2981,13 +2988,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2998,8 +2998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3031,43 +3031,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3112,58 +3112,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3188,23 +3188,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3338,7 +3338,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3367,7 +3367,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3396,7 +3396,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3425,7 +3425,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3454,7 +3454,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3485,7 +3485,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3514,7 +3514,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3543,7 +3543,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3572,7 +3572,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4803,6 +4803,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4814,13 +4821,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4831,8 +4831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4864,43 +4864,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -4945,58 +4945,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -5021,49 +5021,71 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="76"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
       <c r="P5" s="82"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="75"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="63">
+        <v>44615</v>
+      </c>
+      <c r="C6" s="63">
+        <v>44622</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="38">
+        <v>862205051195354</v>
+      </c>
       <c r="F6" s="49"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="G6" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="9"/>
       <c r="I6" s="54"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>79</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5075,26 +5097,52 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
+      <c r="B7" s="63">
+        <v>44615</v>
+      </c>
+      <c r="C7" s="63">
+        <v>44622</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="38">
+        <v>862205051178426</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="37" t="s">
+        <v>67</v>
+      </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="39"/>
+      <c r="I7" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>72</v>
+      </c>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5104,26 +5152,54 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="54"/>
+      <c r="B8" s="63">
+        <v>44615</v>
+      </c>
+      <c r="C8" s="63">
+        <v>44622</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="38">
+        <v>868183038601584</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>69</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="39"/>
+      <c r="K8" s="39" t="s">
+        <v>70</v>
+      </c>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5133,26 +5209,50 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
+      <c r="B9" s="63">
+        <v>44615</v>
+      </c>
+      <c r="C9" s="63">
+        <v>44622</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="38">
+        <v>868183035911507</v>
+      </c>
       <c r="F9" s="49"/>
-      <c r="G9" s="37"/>
+      <c r="G9" s="37" t="s">
+        <v>61</v>
+      </c>
       <c r="H9" s="37"/>
-      <c r="I9" s="54"/>
+      <c r="I9" s="54" t="s">
+        <v>69</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="39"/>
+      <c r="K9" s="39" t="s">
+        <v>70</v>
+      </c>
       <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="M9" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5162,26 +5262,50 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="54"/>
+      <c r="B10" s="63">
+        <v>44615</v>
+      </c>
+      <c r="C10" s="63">
+        <v>44622</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="38">
+        <v>860157040210186</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="54" t="s">
+        <v>69</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="39"/>
+      <c r="K10" s="39" t="s">
+        <v>70</v>
+      </c>
       <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="M10" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="O10" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5191,26 +5315,52 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
+      <c r="B11" s="63">
+        <v>44615</v>
+      </c>
+      <c r="C11" s="63">
+        <v>44622</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="38">
+        <v>868183037821118</v>
+      </c>
       <c r="F11" s="49"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="54"/>
+      <c r="G11" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="54" t="s">
+        <v>69</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="K11" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
+      <c r="O11" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5220,26 +5370,52 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
+      <c r="B12" s="63">
+        <v>44615</v>
+      </c>
+      <c r="C12" s="63">
+        <v>44622</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="38">
+        <v>868183037798027</v>
+      </c>
       <c r="F12" s="49"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="54"/>
+      <c r="G12" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="48" t="s">
+        <v>68</v>
+      </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="K12" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
+      <c r="O12" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5251,26 +5427,52 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="B13" s="63">
+        <v>44615</v>
+      </c>
+      <c r="C13" s="63">
+        <v>44622</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="38">
+        <v>868183034702691</v>
+      </c>
+      <c r="F13" s="49"/>
+      <c r="G13" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="37"/>
+      <c r="I13" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="39" t="s">
+        <v>70</v>
+      </c>
       <c r="L13" s="39"/>
-      <c r="M13" s="1"/>
+      <c r="M13" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="9"/>
+      <c r="O13" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5280,26 +5482,52 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
+      <c r="B14" s="63">
+        <v>44615</v>
+      </c>
+      <c r="C14" s="63">
+        <v>44622</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="38">
+        <v>868183038615139</v>
+      </c>
+      <c r="F14" s="49"/>
+      <c r="G14" s="37" t="s">
+        <v>67</v>
+      </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="I14" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="37"/>
+      <c r="O14" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5328,7 +5556,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5357,7 +5585,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5476,7 +5704,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -5540,7 +5768,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -5753,7 +5981,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -5945,7 +6173,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -6009,7 +6237,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -6588,6 +6816,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6599,13 +6834,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
